--- a/level 2/codeforces - phase 2-2.xlsx
+++ b/level 2/codeforces - phase 2-2.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="9810" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="10770" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="problem solving level 2" sheetId="1" r:id="rId1"/>
+    <sheet name="codeforces level 2.2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -639,308 +639,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -4333,82 +4032,82 @@
     <mergeCell ref="L1:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="A4:A57 M4:M97 B4:B97">
-    <cfRule type="cellIs" dxfId="58" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="109" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:N27 N29:N32">
-    <cfRule type="cellIs" dxfId="57" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="105" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="cellIs" dxfId="56" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="104" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33">
-    <cfRule type="cellIs" dxfId="55" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="103" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25:N33">
-    <cfRule type="cellIs" dxfId="54" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A98:A1048576">
-    <cfRule type="cellIs" dxfId="53" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="97" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:A97">
-    <cfRule type="cellIs" dxfId="51" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="57" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="50" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="56" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82 A58:A73">
-    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A70">
-    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:A81">
-    <cfRule type="cellIs" dxfId="47" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82 M58:M73">
-    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M63:M70">
-    <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M74:M81">
-    <cfRule type="cellIs" dxfId="44" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="46" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="45" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="44" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
